--- a/data_processed/market_objects_regularized_vol.xlsx
+++ b/data_processed/market_objects_regularized_vol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1196,6 +1196,138 @@
         </is>
       </c>
       <c r="B64" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-08-19</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-08-21</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-08-23</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-08-24</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/data_processed/market_objects_regularized_vol.xlsx
+++ b/data_processed/market_objects_regularized_vol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,6 +1333,42 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_processed/market_objects_regularized_vol.xlsx
+++ b/data_processed/market_objects_regularized_vol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['BTCUSD.SPOT']</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1364,6 +1364,114 @@
         </is>
       </c>
       <c r="B78" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-09-06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/data_processed/market_objects_regularized_vol.xlsx
+++ b/data_processed/market_objects_regularized_vol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1472,6 +1472,102 @@
         </is>
       </c>
       <c r="B87" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-09-07</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/data_processed/market_objects_regularized_vol.xlsx
+++ b/data_processed/market_objects_regularized_vol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['BTCUSD.SPOT']</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,67 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD']</t>
         </is>
       </c>
     </row>

--- a/data_processed/market_objects_regularized_vol.xlsx
+++ b/data_processed/market_objects_regularized_vol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,859 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>['BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT', 'BTC.FUNDING.CSA_USD', 'BTCUSD.VOLSURFACE.REGULARIZED']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>['USD.SOFR.CSA_USD', 'BTCUSD.SPOT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>['USD.SOFR.CSA_USD']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
